--- a/public/uploads/Template Publikasi.xlsx
+++ b/public/uploads/Template Publikasi.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\muham\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\cpdc\public\uploads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C56C2A02-E9D9-4580-9CBE-C145C0E287AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90221186-5208-488E-A4C7-CC294E5A19FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{F3D6ACC8-4025-4F8A-AF62-7637BA6432AB}"/>
   </bookViews>
@@ -89,9 +89,6 @@
     <t>Jhon Doe, S.Kom., Janne Doe, S.Si.</t>
   </si>
   <si>
-    <t>Table yang harus di isi sesuai pilihan</t>
-  </si>
-  <si>
     <t>Internasional</t>
   </si>
   <si>
@@ -135,6 +132,9 @@
   </si>
   <si>
     <t>Note :  huruf besar kecilnya disesuikan,karena jika tidak akan mengakibatkan kegagalan dalam input data. dalam upload data  dalam satu file cukup 1 sheet saja.</t>
+  </si>
+  <si>
+    <t>Col yang harus di isi sesuai pilihan</t>
   </si>
 </sst>
 </file>
@@ -201,23 +201,23 @@
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -667,167 +667,167 @@
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection sqref="A1:K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.21875" style="4" customWidth="1"/>
-    <col min="2" max="2" width="30" style="4" customWidth="1"/>
-    <col min="3" max="7" width="8.88671875" style="4"/>
-    <col min="8" max="8" width="71.33203125" style="4" customWidth="1"/>
-    <col min="9" max="16384" width="8.88671875" style="4"/>
+    <col min="1" max="1" width="12.21875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="30" style="2" customWidth="1"/>
+    <col min="3" max="7" width="8.88671875" style="2"/>
+    <col min="8" max="8" width="71.33203125" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="25.2" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="4" t="s">
+      <c r="B5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="4" t="s">
+      <c r="C5" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B6" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B6" s="4" t="s">
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B7" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B7" s="4" t="s">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B8" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B8" s="4" t="s">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B9" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B9" s="4" t="s">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B10" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B10" s="4" t="s">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B11" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B11" s="4" t="s">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B12" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B12" s="4" t="s">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B13" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B13" s="4" t="s">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B14" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B14" s="4" t="s">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B15" s="2" t="s">
         <v>29</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B15" s="4" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
+        <v>31</v>
+      </c>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="5"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
+      <c r="A18" s="7"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="5"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
+      <c r="A19" s="7"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="5"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
+      <c r="A20" s="7"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="5"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
+      <c r="A21" s="7"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="2">
